--- a/biology/Botanique/Decaisnea/Decaisnea.xlsx
+++ b/biology/Botanique/Decaisnea/Decaisnea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Decaisnea est un genre de la famille des Lardizabalacées.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le genre a les caractéristiques suivantes :
 il s'agit d'arbustes au port érigé (les autres plantes de la famille sont des lianes)
@@ -522,7 +536,7 @@
 les étamines des fleurs mâles sont au nombre de six
 les fleurs hermaphrodites possèdent 3 carpelles libres
 les ovules sont disposés en deux rangées parallèles au sein du carpelle de part et d'autre de sa suture
-le fruit est un follicule déhiscent, cylindrique, de 5 à 10 cm de long, rempli d'une pulpe blanche translucide[1]
+le fruit est un follicule déhiscent, cylindrique, de 5 à 10 cm de long, rempli d'une pulpe blanche translucide
 la graine, ovoïde, est plus ou moins aplatie.</t>
         </is>
       </c>
@@ -551,7 +565,9 @@
           <t>Position taxonomique et historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Deux homonymes antérieurs mais illégitimes existent :
 Decaisnea Brogn. (1835) de la famille des Orchidacées
@@ -586,10 +602,12 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Le genre ne comprend que deux espèces :
-Decaisnea fargesii Franch. (1892)[2]
+Decaisnea fargesii Franch. (1892)
 Decaisnea insignis (Griff.) Hook.f. &amp; Thomson, (1855) espèce type du genre</t>
         </is>
       </c>
@@ -618,7 +636,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genre est originaire des zones himalayennes : Bhutan, Chine, Inde, Népal.
 </t>
@@ -649,7 +669,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Les fruits des espèces de ce genre sont comestibles (pulpe).
 			Fleurs de Decaisnea fargesii
